--- a/Doc/Lab2/Lab02_BBT_TCs_Form.xlsx
+++ b/Doc/Lab2/Lab02_BBT_TCs_Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bia\College\3rdYear\2ndSem\UVSS\UVSS_OB\Doc\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7580351-1CDC-4D40-967D-434861A1EB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B884C6-57E3-4FD5-AFA5-B6FA2D1FF6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A5FA74A4-5A30-41CB-8AC4-6A97059E3D3A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5FA74A4-5A30-41CB-8AC4-6A97059E3D3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -101,13 +101,55 @@
     <t>1000000000000</t>
   </si>
   <si>
-    <t>9991231231239</t>
-  </si>
-  <si>
     <t>999999999999</t>
   </si>
   <si>
     <t>10000000000000</t>
+  </si>
+  <si>
+    <t>9999999999999</t>
+  </si>
+  <si>
+    <t>Equivalence Class Partitioning (ECP):</t>
+  </si>
+  <si>
+    <t>Gültige Eingaben:</t>
+  </si>
+  <si>
+    <t>CNP-Nummern mit gültigen Strukturen und Werten.</t>
+  </si>
+  <si>
+    <t>CNP-Nummern mit unterschiedlichen Gültigkeitsprüfungen.</t>
+  </si>
+  <si>
+    <t>Ungültige Eingaben:</t>
+  </si>
+  <si>
+    <t>Boundary Value Analysis (BVA):</t>
+  </si>
+  <si>
+    <t>Gültige Grenzwerte:</t>
+  </si>
+  <si>
+    <t>Die kleinste gültige CNP-Nummer.</t>
+  </si>
+  <si>
+    <t>Die größte gültige CNP-Nummer.</t>
+  </si>
+  <si>
+    <t>Ungültige Grenzwerte:</t>
+  </si>
+  <si>
+    <t>bzw. größten gültigen CNP liegen.</t>
+  </si>
+  <si>
+    <t>CNP-Nummern mit ungültigen Strukturen (falsche Länge, ungültige Zeichen usw.).</t>
+  </si>
+  <si>
+    <t>CNP-Nummern mit ungültigen Werten (falsche Prüfsumme, ungültige Geburtsdaten usw.).</t>
+  </si>
+  <si>
+    <t>CNP-Nummern, die eine Stelle unter oder über dem kleinsten</t>
   </si>
 </sst>
 </file>
@@ -495,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F53081-2AEB-460A-AFAB-BEFEABE7F94B}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
@@ -587,7 +629,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -601,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -615,14 +657,85 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>